--- a/try.xlsx
+++ b/try.xlsx
@@ -412,7 +412,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1117,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -1507,7 +1507,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1802,10 +1802,10 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1">
@@ -1834,10 +1834,10 @@
         <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1">
@@ -1850,7 +1850,7 @@
         <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -1885,7 +1885,7 @@
         <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" ht="13.5" customHeight="1">
@@ -1901,7 +1901,7 @@
         <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" ht="13.5" customHeight="1">
@@ -1933,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" ht="13.5" customHeight="1">
@@ -1962,7 +1962,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -1978,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
@@ -2042,7 +2042,7 @@
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
@@ -2186,7 +2186,7 @@
         <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -2202,7 +2202,7 @@
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -2237,7 +2237,7 @@
         <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" ht="13.5" customHeight="1">
@@ -2253,7 +2253,7 @@
         <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" ht="13.5" customHeight="1">
@@ -2298,7 +2298,7 @@
         <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -2314,7 +2314,7 @@
         <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
@@ -2330,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" ht="13.5" customHeight="1">
@@ -2378,7 +2378,7 @@
         <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
@@ -2413,7 +2413,7 @@
         <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" ht="13.5" customHeight="1">
@@ -2458,7 +2458,7 @@
         <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
@@ -2490,10 +2490,10 @@
         <v>2</v>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" ht="13.5" customHeight="1">
@@ -2509,7 +2509,7 @@
         <v>4</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" ht="13.5" customHeight="1">
@@ -2541,7 +2541,7 @@
         <v>4</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" ht="13.5" customHeight="1">
@@ -2554,7 +2554,7 @@
         <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -2586,7 +2586,7 @@
         <v>4</v>
       </c>
       <c r="C107" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
@@ -2618,7 +2618,7 @@
         <v>4</v>
       </c>
       <c r="C109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -2634,10 +2634,10 @@
         <v>4</v>
       </c>
       <c r="C110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" ht="13.5" customHeight="1">
@@ -2650,10 +2650,10 @@
         <v>4</v>
       </c>
       <c r="C111" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" ht="13.5" customHeight="1">
@@ -2682,7 +2682,7 @@
         <v>4</v>
       </c>
       <c r="C113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -2698,7 +2698,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>4</v>
       </c>
       <c r="C115" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -2762,7 +2762,7 @@
         <v>5</v>
       </c>
       <c r="C118" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>5</v>
       </c>
       <c r="C119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>5</v>
       </c>
       <c r="C120" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
@@ -2826,7 +2826,7 @@
         <v>5</v>
       </c>
       <c r="C122" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>5</v>
       </c>
       <c r="C123" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>5</v>
       </c>
       <c r="C124" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -2874,10 +2874,10 @@
         <v>5</v>
       </c>
       <c r="C125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" ht="13.5" customHeight="1">
@@ -2890,7 +2890,7 @@
         <v>5</v>
       </c>
       <c r="C126" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -2906,10 +2906,10 @@
         <v>5</v>
       </c>
       <c r="C127" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" ht="13.5" customHeight="1">
@@ -2922,7 +2922,7 @@
         <v>5</v>
       </c>
       <c r="C128" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -2938,10 +2938,10 @@
         <v>5</v>
       </c>
       <c r="C129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" ht="13.5" customHeight="1">
@@ -2970,10 +2970,10 @@
         <v>5</v>
       </c>
       <c r="C131" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" ht="13.5" customHeight="1">
@@ -2989,7 +2989,7 @@
         <v>4</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" ht="13.5" customHeight="1">
@@ -3002,10 +3002,10 @@
         <v>5</v>
       </c>
       <c r="C133" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" ht="13.5" customHeight="1">
@@ -3018,7 +3018,7 @@
         <v>5</v>
       </c>
       <c r="C134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -3050,7 +3050,7 @@
         <v>5</v>
       </c>
       <c r="C136" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -3066,10 +3066,10 @@
         <v>5</v>
       </c>
       <c r="C137" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" ht="13.5" customHeight="1">
@@ -3098,10 +3098,10 @@
         <v>5</v>
       </c>
       <c r="C139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" ht="13.5" customHeight="1">
@@ -3114,7 +3114,7 @@
         <v>5</v>
       </c>
       <c r="C140" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -3130,10 +3130,10 @@
         <v>5</v>
       </c>
       <c r="C141" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" ht="13.5" customHeight="1">
@@ -3149,7 +3149,7 @@
         <v>4</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" ht="13.5" customHeight="1">
@@ -3210,7 +3210,7 @@
         <v>5</v>
       </c>
       <c r="C146" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>5</v>
       </c>
       <c r="C148" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
@@ -3258,7 +3258,7 @@
         <v>5</v>
       </c>
       <c r="C149" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>5</v>
       </c>
       <c r="C150" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>

--- a/try.xlsx
+++ b/try.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="תורנים" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -327,8 +327,8 @@
   <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B151" sqref="B151"/>
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -386,7 +386,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -412,7 +412,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -568,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -828,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -906,10 +906,10 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -932,10 +932,10 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -958,10 +958,10 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -984,10 +984,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1010,10 +1010,10 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1036,10 +1036,10 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1062,10 +1062,10 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1088,10 +1088,10 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1114,10 +1114,10 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -1166,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1400,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1452,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1504,10 +1504,10 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1556,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1585,7 +1585,7 @@
         <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1608,10 +1608,10 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1634,10 +1634,10 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1689,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.5" customHeight="1">
@@ -1754,10 +1754,10 @@
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" ht="13.5" customHeight="1">
@@ -1770,10 +1770,10 @@
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" ht="13.5" customHeight="1">
@@ -1786,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1802,10 +1802,10 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1">
@@ -1818,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -1837,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1">
@@ -1866,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -1882,10 +1882,10 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" ht="13.5" customHeight="1">
@@ -1898,10 +1898,10 @@
         <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" ht="13.5" customHeight="1">
@@ -1914,7 +1914,7 @@
         <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -1930,10 +1930,10 @@
         <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" ht="13.5" customHeight="1">
@@ -1946,7 +1946,7 @@
         <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -1981,7 +1981,7 @@
         <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.5" customHeight="1">
@@ -1994,10 +1994,10 @@
         <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" ht="13.5" customHeight="1">
@@ -2010,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
@@ -2026,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
@@ -2042,7 +2042,7 @@
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
@@ -2058,10 +2058,10 @@
         <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" ht="13.5" customHeight="1">
@@ -2074,7 +2074,7 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -2090,10 +2090,10 @@
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" ht="13.5" customHeight="1">
@@ -2106,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>1</v>
@@ -2122,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
@@ -2138,7 +2138,7 @@
         <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
@@ -2154,7 +2154,7 @@
         <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
@@ -2170,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
@@ -2186,7 +2186,7 @@
         <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -2202,7 +2202,7 @@
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -2234,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
@@ -2282,7 +2282,7 @@
         <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" ht="13.5" customHeight="1">
@@ -2314,7 +2314,7 @@
         <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
@@ -2330,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -2346,7 +2346,7 @@
         <v>2</v>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -2362,10 +2362,10 @@
         <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" ht="13.5" customHeight="1">
@@ -2378,10 +2378,10 @@
         <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" ht="13.5" customHeight="1">
@@ -2394,7 +2394,7 @@
         <v>2</v>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
@@ -2410,10 +2410,10 @@
         <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" ht="13.5" customHeight="1">
@@ -2426,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -2442,10 +2442,10 @@
         <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" ht="13.5" customHeight="1">
@@ -2458,7 +2458,7 @@
         <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
@@ -2474,10 +2474,10 @@
         <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.5" customHeight="1">
@@ -2490,10 +2490,10 @@
         <v>2</v>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" ht="13.5" customHeight="1">
@@ -2506,10 +2506,10 @@
         <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" ht="13.5" customHeight="1">
@@ -2522,10 +2522,10 @@
         <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" ht="13.5" customHeight="1">
@@ -2538,10 +2538,10 @@
         <v>2</v>
       </c>
       <c r="C104" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" ht="13.5" customHeight="1">
@@ -2554,7 +2554,7 @@
         <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -2570,10 +2570,10 @@
         <v>4</v>
       </c>
       <c r="C106" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" ht="13.5" customHeight="1">
@@ -2586,10 +2586,10 @@
         <v>4</v>
       </c>
       <c r="C107" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" ht="13.5" customHeight="1">
@@ -2602,10 +2602,10 @@
         <v>4</v>
       </c>
       <c r="C108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" ht="13.5" customHeight="1">
@@ -2618,7 +2618,7 @@
         <v>4</v>
       </c>
       <c r="C109" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -2634,10 +2634,10 @@
         <v>4</v>
       </c>
       <c r="C110" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" ht="13.5" customHeight="1">
@@ -2650,10 +2650,10 @@
         <v>4</v>
       </c>
       <c r="C111" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" ht="13.5" customHeight="1">
@@ -2666,7 +2666,7 @@
         <v>4</v>
       </c>
       <c r="C112" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -2682,7 +2682,7 @@
         <v>4</v>
       </c>
       <c r="C113" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -2698,7 +2698,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -2714,10 +2714,10 @@
         <v>4</v>
       </c>
       <c r="C115" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" ht="13.5" customHeight="1">
@@ -2730,10 +2730,10 @@
         <v>4</v>
       </c>
       <c r="C116" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" ht="13.5" customHeight="1">
@@ -2746,7 +2746,7 @@
         <v>4</v>
       </c>
       <c r="C117" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -2762,10 +2762,10 @@
         <v>5</v>
       </c>
       <c r="C118" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" ht="13.5" customHeight="1">
@@ -2778,10 +2778,10 @@
         <v>5</v>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" ht="13.5" customHeight="1">
@@ -2794,7 +2794,7 @@
         <v>5</v>
       </c>
       <c r="C120" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
@@ -2810,10 +2810,10 @@
         <v>5</v>
       </c>
       <c r="C121" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" ht="13.5" customHeight="1">
@@ -2826,10 +2826,10 @@
         <v>5</v>
       </c>
       <c r="C122" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" ht="13.5" customHeight="1">
@@ -2842,10 +2842,10 @@
         <v>5</v>
       </c>
       <c r="C123" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" ht="13.5" customHeight="1">
@@ -2858,10 +2858,10 @@
         <v>5</v>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" ht="13.5" customHeight="1">
@@ -2874,10 +2874,10 @@
         <v>5</v>
       </c>
       <c r="C125" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" ht="13.5" customHeight="1">
@@ -2890,7 +2890,7 @@
         <v>5</v>
       </c>
       <c r="C126" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -2906,7 +2906,7 @@
         <v>5</v>
       </c>
       <c r="C127" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>5</v>
       </c>
       <c r="C128" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -2938,10 +2938,10 @@
         <v>5</v>
       </c>
       <c r="C129" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" ht="13.5" customHeight="1">
@@ -2954,7 +2954,7 @@
         <v>5</v>
       </c>
       <c r="C130" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -2970,10 +2970,10 @@
         <v>5</v>
       </c>
       <c r="C131" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" ht="13.5" customHeight="1">
@@ -2986,7 +2986,7 @@
         <v>5</v>
       </c>
       <c r="C132" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
@@ -3002,10 +3002,10 @@
         <v>5</v>
       </c>
       <c r="C133" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" ht="13.5" customHeight="1">
@@ -3018,7 +3018,7 @@
         <v>5</v>
       </c>
       <c r="C134" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -3034,7 +3034,7 @@
         <v>5</v>
       </c>
       <c r="C135" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -3050,10 +3050,10 @@
         <v>5</v>
       </c>
       <c r="C136" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" ht="13.5" customHeight="1">
@@ -3066,10 +3066,10 @@
         <v>5</v>
       </c>
       <c r="C137" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" ht="13.5" customHeight="1">
@@ -3082,7 +3082,7 @@
         <v>5</v>
       </c>
       <c r="C138" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -3098,10 +3098,10 @@
         <v>5</v>
       </c>
       <c r="C139" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" ht="13.5" customHeight="1">
@@ -3114,7 +3114,7 @@
         <v>5</v>
       </c>
       <c r="C140" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -3130,10 +3130,10 @@
         <v>5</v>
       </c>
       <c r="C141" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" ht="13.5" customHeight="1">
@@ -3146,7 +3146,7 @@
         <v>5</v>
       </c>
       <c r="C142" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>5</v>
       </c>
       <c r="C143" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -3178,7 +3178,7 @@
         <v>5</v>
       </c>
       <c r="C144" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -3194,7 +3194,7 @@
         <v>5</v>
       </c>
       <c r="C145" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -3210,10 +3210,10 @@
         <v>5</v>
       </c>
       <c r="C146" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" ht="13.5" customHeight="1">
@@ -3226,7 +3226,7 @@
         <v>5</v>
       </c>
       <c r="C147" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -3242,7 +3242,7 @@
         <v>5</v>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
@@ -3258,10 +3258,10 @@
         <v>5</v>
       </c>
       <c r="C149" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" ht="13.5" customHeight="1">
@@ -3274,10 +3274,10 @@
         <v>5</v>
       </c>
       <c r="C150" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" ht="13.5" customHeight="1"/>

--- a/try.xlsx
+++ b/try.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="תורנים" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -327,8 +327,8 @@
   <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E150" sqref="E150"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -386,10 +386,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -412,10 +412,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -438,10 +438,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -594,10 +594,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -646,10 +646,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -672,10 +672,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -698,10 +698,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -724,10 +724,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -750,10 +750,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -802,10 +802,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -828,10 +828,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -854,10 +854,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -906,10 +906,10 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -932,10 +932,10 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -958,10 +958,10 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -984,10 +984,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1010,10 +1010,10 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1036,10 +1036,10 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1062,10 +1062,10 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1088,10 +1088,10 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1114,10 +1114,10 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1140,10 +1140,10 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1166,10 +1166,10 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1192,10 +1192,10 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1218,10 +1218,10 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1244,10 +1244,10 @@
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1270,10 +1270,10 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1296,10 +1296,10 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1322,10 +1322,10 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1348,10 +1348,10 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1374,10 +1374,10 @@
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1426,10 +1426,10 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1452,10 +1452,10 @@
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1478,10 +1478,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1556,10 +1556,10 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1582,10 +1582,10 @@
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1608,10 +1608,10 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1634,10 +1634,10 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1686,10 +1686,10 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1738,10 +1738,10 @@
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" ht="13.5" customHeight="1">
@@ -1754,10 +1754,10 @@
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" ht="13.5" customHeight="1">
@@ -1770,10 +1770,10 @@
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" ht="13.5" customHeight="1">
@@ -1786,10 +1786,10 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
@@ -1802,10 +1802,10 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1">
@@ -1818,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -1834,10 +1834,10 @@
         <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1">
@@ -1850,10 +1850,10 @@
         <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" ht="13.5" customHeight="1">
@@ -1866,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -1882,10 +1882,10 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" ht="13.5" customHeight="1">
@@ -1898,10 +1898,10 @@
         <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" ht="13.5" customHeight="1">
@@ -1914,7 +1914,7 @@
         <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -1930,10 +1930,10 @@
         <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" ht="13.5" customHeight="1">
@@ -1946,10 +1946,10 @@
         <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" ht="13.5" customHeight="1">
@@ -1962,10 +1962,10 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" ht="13.5" customHeight="1">
@@ -1978,10 +1978,10 @@
         <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.5" customHeight="1">
@@ -1994,10 +1994,10 @@
         <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" ht="13.5" customHeight="1">
@@ -2010,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
@@ -2026,10 +2026,10 @@
         <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" ht="13.5" customHeight="1">
@@ -2042,10 +2042,10 @@
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" ht="13.5" customHeight="1">
@@ -2058,10 +2058,10 @@
         <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" ht="13.5" customHeight="1">
@@ -2074,7 +2074,7 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -2090,10 +2090,10 @@
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" ht="13.5" customHeight="1">
@@ -2106,10 +2106,10 @@
         <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" ht="13.5" customHeight="1">
@@ -2122,10 +2122,10 @@
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" ht="13.5" customHeight="1">
@@ -2138,10 +2138,10 @@
         <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" ht="13.5" customHeight="1">
@@ -2154,10 +2154,10 @@
         <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" ht="13.5" customHeight="1">
@@ -2170,10 +2170,10 @@
         <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" ht="13.5" customHeight="1">
@@ -2186,10 +2186,10 @@
         <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" ht="13.5" customHeight="1">
@@ -2202,10 +2202,10 @@
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" ht="13.5" customHeight="1">
@@ -2218,10 +2218,10 @@
         <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" ht="13.5" customHeight="1">
@@ -2234,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -2266,10 +2266,10 @@
         <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" ht="13.5" customHeight="1">
@@ -2282,7 +2282,7 @@
         <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -2314,10 +2314,10 @@
         <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" ht="13.5" customHeight="1">
@@ -2330,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -2346,10 +2346,10 @@
         <v>2</v>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" ht="13.5" customHeight="1">
@@ -2362,7 +2362,7 @@
         <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -2394,10 +2394,10 @@
         <v>2</v>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" ht="13.5" customHeight="1">
@@ -2410,7 +2410,7 @@
         <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -2426,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -2442,10 +2442,10 @@
         <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" ht="13.5" customHeight="1">
@@ -2458,10 +2458,10 @@
         <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" ht="13.5" customHeight="1">
@@ -2474,10 +2474,10 @@
         <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" ht="13.5" customHeight="1">
@@ -2490,10 +2490,10 @@
         <v>2</v>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" ht="13.5" customHeight="1">
@@ -2506,10 +2506,10 @@
         <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" ht="13.5" customHeight="1">
@@ -2522,10 +2522,10 @@
         <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" ht="13.5" customHeight="1">
@@ -2538,7 +2538,7 @@
         <v>2</v>
       </c>
       <c r="C104" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -2570,10 +2570,10 @@
         <v>4</v>
       </c>
       <c r="C106" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" ht="13.5" customHeight="1">
@@ -2586,7 +2586,7 @@
         <v>4</v>
       </c>
       <c r="C107" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>4</v>
       </c>
       <c r="C108" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" ht="13.5" customHeight="1">
@@ -2618,7 +2618,7 @@
         <v>4</v>
       </c>
       <c r="C109" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -2634,7 +2634,7 @@
         <v>4</v>
       </c>
       <c r="C110" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -2650,7 +2650,7 @@
         <v>4</v>
       </c>
       <c r="C111" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -2666,10 +2666,10 @@
         <v>4</v>
       </c>
       <c r="C112" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" ht="13.5" customHeight="1">
@@ -2682,7 +2682,7 @@
         <v>4</v>
       </c>
       <c r="C113" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -2698,7 +2698,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -2714,10 +2714,10 @@
         <v>4</v>
       </c>
       <c r="C115" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" ht="13.5" customHeight="1">
@@ -2730,10 +2730,10 @@
         <v>4</v>
       </c>
       <c r="C116" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" ht="13.5" customHeight="1">
@@ -2746,10 +2746,10 @@
         <v>4</v>
       </c>
       <c r="C117" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" ht="13.5" customHeight="1">
@@ -2762,10 +2762,10 @@
         <v>5</v>
       </c>
       <c r="C118" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" ht="13.5" customHeight="1">
@@ -2778,10 +2778,10 @@
         <v>5</v>
       </c>
       <c r="C119" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" ht="13.5" customHeight="1">
@@ -2794,7 +2794,7 @@
         <v>5</v>
       </c>
       <c r="C120" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
@@ -2810,10 +2810,10 @@
         <v>5</v>
       </c>
       <c r="C121" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" ht="13.5" customHeight="1">
@@ -2826,10 +2826,10 @@
         <v>5</v>
       </c>
       <c r="C122" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" ht="13.5" customHeight="1">
@@ -2842,10 +2842,10 @@
         <v>5</v>
       </c>
       <c r="C123" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" ht="13.5" customHeight="1">
@@ -2858,10 +2858,10 @@
         <v>5</v>
       </c>
       <c r="C124" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" ht="13.5" customHeight="1">
@@ -2874,10 +2874,10 @@
         <v>5</v>
       </c>
       <c r="C125" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" ht="13.5" customHeight="1">
@@ -2890,7 +2890,7 @@
         <v>5</v>
       </c>
       <c r="C126" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -2906,7 +2906,7 @@
         <v>5</v>
       </c>
       <c r="C127" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>5</v>
       </c>
       <c r="C128" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -2938,10 +2938,10 @@
         <v>5</v>
       </c>
       <c r="C129" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" ht="13.5" customHeight="1">
@@ -2954,10 +2954,10 @@
         <v>5</v>
       </c>
       <c r="C130" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" ht="13.5" customHeight="1">
@@ -2970,10 +2970,10 @@
         <v>5</v>
       </c>
       <c r="C131" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" ht="13.5" customHeight="1">
@@ -2986,10 +2986,10 @@
         <v>5</v>
       </c>
       <c r="C132" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" ht="13.5" customHeight="1">
@@ -3002,10 +3002,10 @@
         <v>5</v>
       </c>
       <c r="C133" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" ht="13.5" customHeight="1">
@@ -3018,10 +3018,10 @@
         <v>5</v>
       </c>
       <c r="C134" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" ht="13.5" customHeight="1">
@@ -3034,7 +3034,7 @@
         <v>5</v>
       </c>
       <c r="C135" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -3050,10 +3050,10 @@
         <v>5</v>
       </c>
       <c r="C136" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" ht="13.5" customHeight="1">
@@ -3066,10 +3066,10 @@
         <v>5</v>
       </c>
       <c r="C137" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" ht="13.5" customHeight="1">
@@ -3082,7 +3082,7 @@
         <v>5</v>
       </c>
       <c r="C138" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -3098,10 +3098,10 @@
         <v>5</v>
       </c>
       <c r="C139" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" ht="13.5" customHeight="1">
@@ -3114,7 +3114,7 @@
         <v>5</v>
       </c>
       <c r="C140" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -3130,10 +3130,10 @@
         <v>5</v>
       </c>
       <c r="C141" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" ht="13.5" customHeight="1">
@@ -3146,7 +3146,7 @@
         <v>5</v>
       </c>
       <c r="C142" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -3162,10 +3162,10 @@
         <v>5</v>
       </c>
       <c r="C143" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" ht="13.5" customHeight="1">
@@ -3178,10 +3178,10 @@
         <v>5</v>
       </c>
       <c r="C144" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" ht="13.5" customHeight="1">
@@ -3194,10 +3194,10 @@
         <v>5</v>
       </c>
       <c r="C145" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" ht="13.5" customHeight="1">
@@ -3210,10 +3210,10 @@
         <v>5</v>
       </c>
       <c r="C146" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" ht="13.5" customHeight="1">
@@ -3226,7 +3226,7 @@
         <v>5</v>
       </c>
       <c r="C147" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -3242,7 +3242,7 @@
         <v>5</v>
       </c>
       <c r="C148" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
@@ -3258,10 +3258,10 @@
         <v>5</v>
       </c>
       <c r="C149" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" ht="13.5" customHeight="1">
@@ -3274,10 +3274,10 @@
         <v>5</v>
       </c>
       <c r="C150" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" ht="13.5" customHeight="1"/>
